--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8052596666666667</v>
+        <v>0.259369</v>
       </c>
       <c r="N2">
-        <v>2.415779</v>
+        <v>0.778107</v>
       </c>
       <c r="O2">
-        <v>0.121346445909118</v>
+        <v>0.0514155333512404</v>
       </c>
       <c r="P2">
-        <v>0.121346445909118</v>
+        <v>0.0514155333512404</v>
       </c>
       <c r="Q2">
-        <v>0.2882671238932222</v>
+        <v>0.09284900107633334</v>
       </c>
       <c r="R2">
-        <v>2.594404115039</v>
+        <v>0.8356410096870001</v>
       </c>
       <c r="S2">
-        <v>0.121346445909118</v>
+        <v>0.0514155333512404</v>
       </c>
       <c r="T2">
-        <v>0.121346445909118</v>
+        <v>0.0514155333512404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>9.054489</v>
       </c>
       <c r="O3">
-        <v>0.4548139791235885</v>
+        <v>0.5982999525231611</v>
       </c>
       <c r="P3">
-        <v>0.4548139791235885</v>
+        <v>0.5982999525231611</v>
       </c>
       <c r="Q3">
         <v>1.080442996794333</v>
@@ -632,10 +632,10 @@
         <v>9.723986971149001</v>
       </c>
       <c r="S3">
-        <v>0.4548139791235885</v>
+        <v>0.5982999525231611</v>
       </c>
       <c r="T3">
-        <v>0.4548139791235885</v>
+        <v>0.5982999525231611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.812615666666666</v>
+        <v>1.767033</v>
       </c>
       <c r="N4">
-        <v>8.437847</v>
+        <v>5.301099</v>
       </c>
       <c r="O4">
-        <v>0.4238395749672935</v>
+        <v>0.3502845141255985</v>
       </c>
       <c r="P4">
-        <v>0.4238395749672934</v>
+        <v>0.3502845141255985</v>
       </c>
       <c r="Q4">
-        <v>1.006861093891889</v>
+        <v>0.632563062351</v>
       </c>
       <c r="R4">
-        <v>9.061749845027</v>
+        <v>5.693067561159</v>
       </c>
       <c r="S4">
-        <v>0.4238395749672935</v>
+        <v>0.3502845141255985</v>
       </c>
       <c r="T4">
-        <v>0.4238395749672934</v>
+        <v>0.3502845141255985</v>
       </c>
     </row>
   </sheetData>
